--- a/biology/Zoologie/Acanthuriformes/Acanthuriformes.xlsx
+++ b/biology/Zoologie/Acanthuriformes/Acanthuriformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthuriformes sont un ordre de poissons à nageoires rayonnées, faisant partie du clade des Percomorpha. Certaines autorités placent les poissons dans l'ordre des Acanthuriformes dans les sous-ordres Acanthuroidea et Percoidea de l'ordre des Perciformes.
 </t>
@@ -511,14 +523,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Acanthuriformes tels que définis dans la 5e édition de Fishes of the World sont présentés comme suit[2],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Acanthuriformes tels que définis dans la 5e édition de Fishes of the World sont présentés comme suit, :
 Ordre Acanthuriformes
 Sous-ordre Sciaenoidei Gill, 1872
 Famille Emmelichthyidae Poey, 1867
 Famille Sciaenidae Cuvier, 1829
-Sous-ordre Acanthuroidei Greenwood et al, 1966[4]
+Sous-ordre Acanthuroidei Greenwood et al, 1966
 Famille Luvaridae Gill, 1885 (Luvar)
 Famille Zanclidae Bleeker, 1876
 †Famille Acanthonemidae Bannikov, 1991
@@ -529,7 +543,7 @@
 Tribu Prionurini J.L.B. Smith, 1966
 Tribu Zebrasomini Winterbottom, 1993
 Tribu Acanthurini Bonaparte, 1835
-D'autres autorités n'incluent pas les Scianoidei dans les Acanthuriformes et placent les deux familles incluses dans ce sous-ordre comme incertae sedis dans les Eupercaria[5].
+D'autres autorités n'incluent pas les Scianoidei dans les Acanthuriformes et placent les deux familles incluses dans ce sous-ordre comme incertae sedis dans les Eupercaria.
 </t>
         </is>
       </c>
